--- a/aFrame/2017_season_detailed_cleaned.xlsx
+++ b/aFrame/2017_season_detailed_cleaned.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hopetambala/Documents/development/work/libviz/aframe-bigquery-NCAAB/aFrame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3912C5DE-F7E7-2143-9B44-164078D6C86F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73A13D4-E428-1C46-A3D7-D4038C5DF9B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017_season_detailed_cleaned" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="663">
   <si>
     <t>id</t>
   </si>
@@ -2003,12 +2011,18 @@
   </si>
   <si>
     <t>https://www.ncaa.com/sites/default/files/images/logos/schools/t/texas.24.png</t>
+  </si>
+  <si>
+    <t>points_differential</t>
+  </si>
+  <si>
+    <t>points_allowed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2145,7 +2159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2325,6 +2339,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2486,10 +2506,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2844,14 +2865,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BQ135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BS6" sqref="BS6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="31" max="31" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.33203125" customWidth="1"/>
+    <col min="68" max="68" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3050,8 +3080,15 @@
       <c r="BN1" t="s">
         <v>65</v>
       </c>
+      <c r="BO1" s="3"/>
+      <c r="BP1" t="s">
+        <v>662</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>661</v>
+      </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3247,8 +3284,16 @@
       <c r="BN2">
         <v>0</v>
       </c>
+      <c r="BO2" s="3"/>
+      <c r="BP2">
+        <v>65</v>
+      </c>
+      <c r="BQ2">
+        <f>AE2-BP2</f>
+        <v>-7</v>
+      </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3444,8 +3489,16 @@
       <c r="BN3">
         <v>0</v>
       </c>
+      <c r="BO3" s="3"/>
+      <c r="BP3">
+        <v>64</v>
+      </c>
+      <c r="BQ3">
+        <f t="shared" ref="BQ3:BQ66" si="0">AE3-BP3</f>
+        <v>-18</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3641,8 +3694,16 @@
       <c r="BN4">
         <v>0</v>
       </c>
+      <c r="BO4" s="3"/>
+      <c r="BP4">
+        <v>60</v>
+      </c>
+      <c r="BQ4">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3838,8 +3899,16 @@
       <c r="BN5">
         <v>0</v>
       </c>
+      <c r="BO5" s="3"/>
+      <c r="BP5">
+        <v>61</v>
+      </c>
+      <c r="BQ5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4038,8 +4107,16 @@
       <c r="BN6">
         <v>0</v>
       </c>
+      <c r="BO6" s="3"/>
+      <c r="BP6">
+        <v>64</v>
+      </c>
+      <c r="BQ6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4238,8 +4315,16 @@
       <c r="BN7">
         <v>0</v>
       </c>
+      <c r="BO7" s="3"/>
+      <c r="BP7">
+        <v>64</v>
+      </c>
+      <c r="BQ7">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4438,8 +4523,16 @@
       <c r="BN8">
         <v>0</v>
       </c>
+      <c r="BO8" s="3"/>
+      <c r="BP8">
+        <v>47</v>
+      </c>
+      <c r="BQ8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4638,8 +4731,16 @@
       <c r="BN9">
         <v>0</v>
       </c>
+      <c r="BO9" s="3"/>
+      <c r="BP9">
+        <v>60</v>
+      </c>
+      <c r="BQ9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4838,8 +4939,16 @@
       <c r="BN10">
         <v>0</v>
       </c>
+      <c r="BO10" s="3"/>
+      <c r="BP10">
+        <v>67</v>
+      </c>
+      <c r="BQ10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5038,8 +5147,16 @@
       <c r="BN11">
         <v>0</v>
       </c>
+      <c r="BO11" s="3"/>
+      <c r="BP11">
+        <v>78</v>
+      </c>
+      <c r="BQ11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5238,8 +5355,16 @@
       <c r="BN12">
         <v>0</v>
       </c>
+      <c r="BO12" s="3"/>
+      <c r="BP12">
+        <v>61</v>
+      </c>
+      <c r="BQ12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5438,8 +5563,16 @@
       <c r="BN13">
         <v>1</v>
       </c>
+      <c r="BO13" s="3"/>
+      <c r="BP13">
+        <v>86</v>
+      </c>
+      <c r="BQ13">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5638,8 +5771,16 @@
       <c r="BN14">
         <v>0</v>
       </c>
+      <c r="BO14" s="3"/>
+      <c r="BP14">
+        <v>60</v>
+      </c>
+      <c r="BQ14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5838,8 +5979,16 @@
       <c r="BN15">
         <v>0</v>
       </c>
+      <c r="BO15" s="3"/>
+      <c r="BP15">
+        <v>62</v>
+      </c>
+      <c r="BQ15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6038,8 +6187,16 @@
       <c r="BN16">
         <v>0</v>
       </c>
+      <c r="BO16" s="3"/>
+      <c r="BP16">
+        <v>89</v>
+      </c>
+      <c r="BQ16">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6238,8 +6395,16 @@
       <c r="BN17">
         <v>0</v>
       </c>
+      <c r="BO17" s="3"/>
+      <c r="BP17">
+        <v>73</v>
+      </c>
+      <c r="BQ17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6438,8 +6603,16 @@
       <c r="BN18">
         <v>0</v>
       </c>
+      <c r="BO18" s="3"/>
+      <c r="BP18">
+        <v>73</v>
+      </c>
+      <c r="BQ18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6638,8 +6811,16 @@
       <c r="BN19">
         <v>0</v>
       </c>
+      <c r="BO19" s="3"/>
+      <c r="BP19">
+        <v>65</v>
+      </c>
+      <c r="BQ19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6838,8 +7019,16 @@
       <c r="BN20">
         <v>0</v>
       </c>
+      <c r="BO20" s="3"/>
+      <c r="BP20">
+        <v>47</v>
+      </c>
+      <c r="BQ20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -7038,8 +7227,16 @@
       <c r="BN21">
         <v>0</v>
       </c>
+      <c r="BO21" s="3"/>
+      <c r="BP21">
+        <v>83</v>
+      </c>
+      <c r="BQ21">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -7238,8 +7435,16 @@
       <c r="BN22">
         <v>0</v>
       </c>
+      <c r="BO22" s="3"/>
+      <c r="BP22">
+        <v>67</v>
+      </c>
+      <c r="BQ22">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -7438,8 +7643,16 @@
       <c r="BN23">
         <v>0</v>
       </c>
+      <c r="BO23" s="3"/>
+      <c r="BP23">
+        <v>83</v>
+      </c>
+      <c r="BQ23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -7638,8 +7851,16 @@
       <c r="BN24">
         <v>0</v>
       </c>
+      <c r="BO24" s="3"/>
+      <c r="BP24">
+        <v>53</v>
+      </c>
+      <c r="BQ24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -7838,8 +8059,16 @@
       <c r="BN25">
         <v>0</v>
       </c>
+      <c r="BO25" s="3"/>
+      <c r="BP25">
+        <v>74</v>
+      </c>
+      <c r="BQ25">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8038,8 +8267,16 @@
       <c r="BN26">
         <v>0</v>
       </c>
+      <c r="BO26" s="3"/>
+      <c r="BP26">
+        <v>69</v>
+      </c>
+      <c r="BQ26">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
     </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8238,8 +8475,16 @@
       <c r="BN27">
         <v>0</v>
       </c>
+      <c r="BO27" s="3"/>
+      <c r="BP27">
+        <v>69</v>
+      </c>
+      <c r="BQ27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8438,8 +8683,16 @@
       <c r="BN28">
         <v>0</v>
       </c>
+      <c r="BO28" s="3"/>
+      <c r="BP28">
+        <v>66</v>
+      </c>
+      <c r="BQ28">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8638,8 +8891,16 @@
       <c r="BN29">
         <v>0</v>
       </c>
+      <c r="BO29" s="3"/>
+      <c r="BP29">
+        <v>78</v>
+      </c>
+      <c r="BQ29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8838,8 +9099,16 @@
       <c r="BN30">
         <v>0</v>
       </c>
+      <c r="BO30" s="3"/>
+      <c r="BP30">
+        <v>57</v>
+      </c>
+      <c r="BQ30">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -9038,8 +9307,16 @@
       <c r="BN31">
         <v>0</v>
       </c>
+      <c r="BO31" s="3"/>
+      <c r="BP31">
+        <v>79</v>
+      </c>
+      <c r="BQ31">
+        <f t="shared" si="0"/>
+        <v>-17</v>
+      </c>
     </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -9238,8 +9515,16 @@
       <c r="BN32">
         <v>0</v>
       </c>
+      <c r="BO32" s="3"/>
+      <c r="BP32">
+        <v>48</v>
+      </c>
+      <c r="BQ32">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
     </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -9438,8 +9723,16 @@
       <c r="BN33">
         <v>0</v>
       </c>
+      <c r="BO33" s="3"/>
+      <c r="BP33">
+        <v>68</v>
+      </c>
+      <c r="BQ33">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -9638,8 +9931,16 @@
       <c r="BN34">
         <v>0</v>
       </c>
+      <c r="BO34" s="3"/>
+      <c r="BP34">
+        <v>58</v>
+      </c>
+      <c r="BQ34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -9838,8 +10139,16 @@
       <c r="BN35">
         <v>0</v>
       </c>
+      <c r="BO35" s="3"/>
+      <c r="BP35">
+        <v>81</v>
+      </c>
+      <c r="BQ35">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
     </row>
-    <row r="36" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -10038,8 +10347,16 @@
       <c r="BN36">
         <v>0</v>
       </c>
+      <c r="BO36" s="3"/>
+      <c r="BP36">
+        <v>68</v>
+      </c>
+      <c r="BQ36">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
     </row>
-    <row r="37" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -10238,8 +10555,16 @@
       <c r="BN37">
         <v>0</v>
       </c>
+      <c r="BO37" s="3"/>
+      <c r="BP37">
+        <v>83</v>
+      </c>
+      <c r="BQ37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="38" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -10438,8 +10763,16 @@
       <c r="BN38">
         <v>0</v>
       </c>
+      <c r="BO38" s="3"/>
+      <c r="BP38">
+        <v>86</v>
+      </c>
+      <c r="BQ38">
+        <f t="shared" si="0"/>
+        <v>-21</v>
+      </c>
     </row>
-    <row r="39" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -10638,8 +10971,16 @@
       <c r="BN39">
         <v>0</v>
       </c>
+      <c r="BO39" s="3"/>
+      <c r="BP39">
+        <v>43</v>
+      </c>
+      <c r="BQ39">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
-    <row r="40" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -10838,8 +11179,16 @@
       <c r="BN40">
         <v>0</v>
       </c>
+      <c r="BO40" s="3"/>
+      <c r="BP40">
+        <v>71</v>
+      </c>
+      <c r="BQ40">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="41" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -11038,8 +11387,16 @@
       <c r="BN41">
         <v>0</v>
       </c>
+      <c r="BO41" s="3"/>
+      <c r="BP41">
+        <v>84</v>
+      </c>
+      <c r="BQ41">
+        <f t="shared" si="0"/>
+        <v>-31</v>
+      </c>
     </row>
-    <row r="42" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -11238,8 +11595,16 @@
       <c r="BN42">
         <v>0</v>
       </c>
+      <c r="BO42" s="3"/>
+      <c r="BP42">
+        <v>73</v>
+      </c>
+      <c r="BQ42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="43" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -11438,8 +11803,16 @@
       <c r="BN43">
         <v>0</v>
       </c>
+      <c r="BO43" s="3"/>
+      <c r="BP43">
+        <v>55</v>
+      </c>
+      <c r="BQ43">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -11638,8 +12011,16 @@
       <c r="BN44">
         <v>0</v>
       </c>
+      <c r="BO44" s="3"/>
+      <c r="BP44">
+        <v>75</v>
+      </c>
+      <c r="BQ44">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
     </row>
-    <row r="45" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -11838,8 +12219,16 @@
       <c r="BN45">
         <v>0</v>
       </c>
+      <c r="BO45" s="3"/>
+      <c r="BP45">
+        <v>75</v>
+      </c>
+      <c r="BQ45">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -12038,8 +12427,16 @@
       <c r="BN46">
         <v>0</v>
       </c>
+      <c r="BO46" s="3"/>
+      <c r="BP46">
+        <v>58</v>
+      </c>
+      <c r="BQ46">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
     </row>
-    <row r="47" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -12238,8 +12635,16 @@
       <c r="BN47">
         <v>0</v>
       </c>
+      <c r="BO47" s="3"/>
+      <c r="BP47">
+        <v>62</v>
+      </c>
+      <c r="BQ47">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="48" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -12438,8 +12843,16 @@
       <c r="BN48">
         <v>0</v>
       </c>
+      <c r="BO48" s="3"/>
+      <c r="BP48">
+        <v>63</v>
+      </c>
+      <c r="BQ48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -12638,8 +13051,16 @@
       <c r="BN49">
         <v>0</v>
       </c>
+      <c r="BO49" s="3"/>
+      <c r="BP49">
+        <v>79</v>
+      </c>
+      <c r="BQ49">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="50" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -12838,8 +13259,16 @@
       <c r="BN50">
         <v>0</v>
       </c>
+      <c r="BO50" s="3"/>
+      <c r="BP50">
+        <v>63</v>
+      </c>
+      <c r="BQ50">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="51" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -13038,8 +13467,16 @@
       <c r="BN51">
         <v>0</v>
       </c>
+      <c r="BO51" s="3"/>
+      <c r="BP51">
+        <v>66</v>
+      </c>
+      <c r="BQ51">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="52" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -13238,8 +13675,16 @@
       <c r="BN52">
         <v>0</v>
       </c>
+      <c r="BO52" s="3"/>
+      <c r="BP52">
+        <v>75</v>
+      </c>
+      <c r="BQ52">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="53" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -13438,8 +13883,16 @@
       <c r="BN53">
         <v>0</v>
       </c>
+      <c r="BO53" s="3"/>
+      <c r="BP53">
+        <v>84</v>
+      </c>
+      <c r="BQ53">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="54" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -13638,8 +14091,16 @@
       <c r="BN54">
         <v>1</v>
       </c>
+      <c r="BO54" s="3"/>
+      <c r="BP54">
+        <v>61</v>
+      </c>
+      <c r="BQ54">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
     </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -13838,8 +14299,16 @@
       <c r="BN55">
         <v>0</v>
       </c>
+      <c r="BO55" s="3"/>
+      <c r="BP55">
+        <v>69</v>
+      </c>
+      <c r="BQ55">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="56" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -14038,8 +14507,16 @@
       <c r="BN56">
         <v>0</v>
       </c>
+      <c r="BO56" s="3"/>
+      <c r="BP56">
+        <v>72</v>
+      </c>
+      <c r="BQ56">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
     </row>
-    <row r="57" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -14238,8 +14715,16 @@
       <c r="BN57">
         <v>0</v>
       </c>
+      <c r="BO57" s="3"/>
+      <c r="BP57">
+        <v>75</v>
+      </c>
+      <c r="BQ57">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
     </row>
-    <row r="58" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -14438,8 +14923,16 @@
       <c r="BN58">
         <v>0</v>
       </c>
+      <c r="BO58" s="3"/>
+      <c r="BP58">
+        <v>78</v>
+      </c>
+      <c r="BQ58">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="59" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -14638,8 +15131,16 @@
       <c r="BN59">
         <v>0</v>
       </c>
+      <c r="BO59" s="3"/>
+      <c r="BP59">
+        <v>78</v>
+      </c>
+      <c r="BQ59">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
     </row>
-    <row r="60" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -14838,8 +15339,16 @@
       <c r="BN60">
         <v>0</v>
       </c>
+      <c r="BO60" s="3"/>
+      <c r="BP60">
+        <v>65</v>
+      </c>
+      <c r="BQ60">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="61" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -15038,8 +15547,16 @@
       <c r="BN61">
         <v>0</v>
       </c>
+      <c r="BO61" s="3"/>
+      <c r="BP61">
+        <v>76</v>
+      </c>
+      <c r="BQ61">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="62" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -15238,8 +15755,16 @@
       <c r="BN62">
         <v>0</v>
       </c>
+      <c r="BO62" s="3"/>
+      <c r="BP62">
+        <v>78</v>
+      </c>
+      <c r="BQ62">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
     </row>
-    <row r="63" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -15438,8 +15963,16 @@
       <c r="BN63">
         <v>0</v>
       </c>
+      <c r="BO63" s="3"/>
+      <c r="BP63">
+        <v>54</v>
+      </c>
+      <c r="BQ63">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="64" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -15638,8 +16171,16 @@
       <c r="BN64">
         <v>0</v>
       </c>
+      <c r="BO64" s="3"/>
+      <c r="BP64">
+        <v>81</v>
+      </c>
+      <c r="BQ64">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="65" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -15838,8 +16379,16 @@
       <c r="BN65">
         <v>0</v>
       </c>
+      <c r="BO65" s="3"/>
+      <c r="BP65">
+        <v>59</v>
+      </c>
+      <c r="BQ65">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="66" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -16038,8 +16587,16 @@
       <c r="BN66">
         <v>0</v>
       </c>
+      <c r="BO66" s="3"/>
+      <c r="BP66">
+        <v>79</v>
+      </c>
+      <c r="BQ66">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="67" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -16238,8 +16795,16 @@
       <c r="BN67">
         <v>0</v>
       </c>
+      <c r="BO67" s="3"/>
+      <c r="BP67">
+        <v>57</v>
+      </c>
+      <c r="BQ67">
+        <f t="shared" ref="BQ67:BQ130" si="1">AE67-BP67</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="68" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -16435,8 +17000,16 @@
       <c r="BN68">
         <v>0</v>
       </c>
+      <c r="BO68" s="3"/>
+      <c r="BP68">
+        <v>62</v>
+      </c>
+      <c r="BQ68">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
     </row>
-    <row r="69" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -16632,8 +17205,16 @@
       <c r="BN69">
         <v>0</v>
       </c>
+      <c r="BO69" s="3"/>
+      <c r="BP69">
+        <v>58</v>
+      </c>
+      <c r="BQ69">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
     </row>
-    <row r="70" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -16829,8 +17410,16 @@
       <c r="BN70">
         <v>0</v>
       </c>
+      <c r="BO70" s="3"/>
+      <c r="BP70">
+        <v>46</v>
+      </c>
+      <c r="BQ70">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="71" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -17026,8 +17615,16 @@
       <c r="BN71">
         <v>0</v>
       </c>
+      <c r="BO71" s="3"/>
+      <c r="BP71">
+        <v>56</v>
+      </c>
+      <c r="BQ71">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="72" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -17223,8 +17820,16 @@
       <c r="BN72">
         <v>0</v>
       </c>
+      <c r="BO72" s="3"/>
+      <c r="BP72">
+        <v>71</v>
+      </c>
+      <c r="BQ72">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
     </row>
-    <row r="73" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -17423,8 +18028,16 @@
       <c r="BN73">
         <v>0</v>
       </c>
+      <c r="BO73" s="3"/>
+      <c r="BP73">
+        <v>68</v>
+      </c>
+      <c r="BQ73">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
     </row>
-    <row r="74" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -17623,8 +18236,16 @@
       <c r="BN74">
         <v>0</v>
       </c>
+      <c r="BO74" s="3"/>
+      <c r="BP74">
+        <v>62</v>
+      </c>
+      <c r="BQ74">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="75" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -17823,8 +18444,16 @@
       <c r="BN75">
         <v>0</v>
       </c>
+      <c r="BO75" s="3"/>
+      <c r="BP75">
+        <v>73</v>
+      </c>
+      <c r="BQ75">
+        <f t="shared" si="1"/>
+        <v>-26</v>
+      </c>
     </row>
-    <row r="76" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -18023,8 +18652,16 @@
       <c r="BN76">
         <v>0</v>
       </c>
+      <c r="BO76" s="3"/>
+      <c r="BP76">
+        <v>76</v>
+      </c>
+      <c r="BQ76">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
     </row>
-    <row r="77" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -18223,8 +18860,16 @@
       <c r="BN77">
         <v>0</v>
       </c>
+      <c r="BO77" s="3"/>
+      <c r="BP77">
+        <v>89</v>
+      </c>
+      <c r="BQ77">
+        <f t="shared" si="1"/>
+        <v>-22</v>
+      </c>
     </row>
-    <row r="78" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -18423,8 +19068,16 @@
       <c r="BN78">
         <v>0</v>
       </c>
+      <c r="BO78" s="3"/>
+      <c r="BP78">
+        <v>83</v>
+      </c>
+      <c r="BQ78">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
     </row>
-    <row r="79" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -18623,8 +19276,16 @@
       <c r="BN79">
         <v>0</v>
       </c>
+      <c r="BO79" s="3"/>
+      <c r="BP79">
+        <v>87</v>
+      </c>
+      <c r="BQ79">
+        <f t="shared" si="1"/>
+        <v>-26</v>
+      </c>
     </row>
-    <row r="80" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -18823,8 +19484,16 @@
       <c r="BN80">
         <v>0</v>
       </c>
+      <c r="BO80" s="3"/>
+      <c r="BP80">
+        <v>83</v>
+      </c>
+      <c r="BQ80">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="81" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -19023,8 +19692,16 @@
       <c r="BN81">
         <v>0</v>
       </c>
+      <c r="BO81" s="3"/>
+      <c r="BP81">
+        <v>70</v>
+      </c>
+      <c r="BQ81">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
     </row>
-    <row r="82" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -19223,8 +19900,16 @@
       <c r="BN82">
         <v>0</v>
       </c>
+      <c r="BO82" s="3"/>
+      <c r="BP82">
+        <v>77</v>
+      </c>
+      <c r="BQ82">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
     </row>
-    <row r="83" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -19423,8 +20108,16 @@
       <c r="BN83">
         <v>0</v>
       </c>
+      <c r="BO83" s="3"/>
+      <c r="BP83">
+        <v>68</v>
+      </c>
+      <c r="BQ83">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="84" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -19623,8 +20316,16 @@
       <c r="BN84">
         <v>0</v>
       </c>
+      <c r="BO84" s="3"/>
+      <c r="BP84">
+        <v>78</v>
+      </c>
+      <c r="BQ84">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
     </row>
-    <row r="85" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -19823,8 +20524,16 @@
       <c r="BN85">
         <v>0</v>
       </c>
+      <c r="BO85" s="3"/>
+      <c r="BP85">
+        <v>81</v>
+      </c>
+      <c r="BQ85">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
     </row>
-    <row r="86" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -20023,8 +20732,16 @@
       <c r="BN86">
         <v>0</v>
       </c>
+      <c r="BO86" s="3"/>
+      <c r="BP86">
+        <v>67</v>
+      </c>
+      <c r="BQ86">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
     </row>
-    <row r="87" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -20223,8 +20940,16 @@
       <c r="BN87">
         <v>0</v>
       </c>
+      <c r="BO87" s="3"/>
+      <c r="BP87">
+        <v>61</v>
+      </c>
+      <c r="BQ87">
+        <f t="shared" si="1"/>
+        <v>-14</v>
+      </c>
     </row>
-    <row r="88" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -20423,8 +21148,16 @@
       <c r="BN88">
         <v>0</v>
       </c>
+      <c r="BO88" s="3"/>
+      <c r="BP88">
+        <v>94</v>
+      </c>
+      <c r="BQ88">
+        <f t="shared" si="1"/>
+        <v>-11</v>
+      </c>
     </row>
-    <row r="89" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -20623,8 +21356,16 @@
       <c r="BN89">
         <v>0</v>
       </c>
+      <c r="BO89" s="3"/>
+      <c r="BP89">
+        <v>54</v>
+      </c>
+      <c r="BQ89">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
     </row>
-    <row r="90" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -20823,8 +21564,16 @@
       <c r="BN90">
         <v>1</v>
       </c>
+      <c r="BO90" s="3"/>
+      <c r="BP90">
+        <v>102</v>
+      </c>
+      <c r="BQ90">
+        <f t="shared" si="1"/>
+        <v>-19</v>
+      </c>
     </row>
-    <row r="91" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -21023,8 +21772,16 @@
       <c r="BN91">
         <v>0</v>
       </c>
+      <c r="BO91" s="3"/>
+      <c r="BP91">
+        <v>68</v>
+      </c>
+      <c r="BQ91">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
     </row>
-    <row r="92" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -21223,8 +21980,16 @@
       <c r="BN92">
         <v>0</v>
       </c>
+      <c r="BO92" s="3"/>
+      <c r="BP92">
+        <v>54</v>
+      </c>
+      <c r="BQ92">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="93" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -21423,8 +22188,16 @@
       <c r="BN93">
         <v>0</v>
       </c>
+      <c r="BO93" s="3"/>
+      <c r="BP93">
+        <v>59</v>
+      </c>
+      <c r="BQ93">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="94" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -21623,8 +22396,16 @@
       <c r="BN94">
         <v>0</v>
       </c>
+      <c r="BO94" s="3"/>
+      <c r="BP94">
+        <v>73</v>
+      </c>
+      <c r="BQ94">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
     </row>
-    <row r="95" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -21823,8 +22604,16 @@
       <c r="BN95">
         <v>0</v>
       </c>
+      <c r="BO95" s="3"/>
+      <c r="BP95">
+        <v>84</v>
+      </c>
+      <c r="BQ95">
+        <f t="shared" si="1"/>
+        <v>-18</v>
+      </c>
     </row>
-    <row r="96" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -22023,8 +22812,16 @@
       <c r="BN96">
         <v>0</v>
       </c>
+      <c r="BO96" s="3"/>
+      <c r="BP96">
+        <v>82</v>
+      </c>
+      <c r="BQ96">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
     </row>
-    <row r="97" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -22223,8 +23020,16 @@
       <c r="BN97">
         <v>0</v>
       </c>
+      <c r="BO97" s="3"/>
+      <c r="BP97">
+        <v>52</v>
+      </c>
+      <c r="BQ97">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="98" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -22423,8 +23228,16 @@
       <c r="BN98">
         <v>0</v>
       </c>
+      <c r="BO98" s="3"/>
+      <c r="BP98">
+        <v>62</v>
+      </c>
+      <c r="BQ98">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
     </row>
-    <row r="99" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -22623,8 +23436,16 @@
       <c r="BN99">
         <v>0</v>
       </c>
+      <c r="BO99" s="3"/>
+      <c r="BP99">
+        <v>74</v>
+      </c>
+      <c r="BQ99">
+        <f t="shared" si="1"/>
+        <v>-26</v>
+      </c>
     </row>
-    <row r="100" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -22823,8 +23644,16 @@
       <c r="BN100">
         <v>0</v>
       </c>
+      <c r="BO100" s="3"/>
+      <c r="BP100">
+        <v>79</v>
+      </c>
+      <c r="BQ100">
+        <f t="shared" si="1"/>
+        <v>-11</v>
+      </c>
     </row>
-    <row r="101" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -23023,8 +23852,16 @@
       <c r="BN101">
         <v>0</v>
       </c>
+      <c r="BO101" s="3"/>
+      <c r="BP101">
+        <v>62</v>
+      </c>
+      <c r="BQ101">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
     </row>
-    <row r="102" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -23223,8 +24060,16 @@
       <c r="BN102">
         <v>0</v>
       </c>
+      <c r="BO102" s="3"/>
+      <c r="BP102">
+        <v>75</v>
+      </c>
+      <c r="BQ102">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="103" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -23423,8 +24268,16 @@
       <c r="BN103">
         <v>0</v>
       </c>
+      <c r="BO103" s="3"/>
+      <c r="BP103">
+        <v>85</v>
+      </c>
+      <c r="BQ103">
+        <f t="shared" si="1"/>
+        <v>-17</v>
+      </c>
     </row>
-    <row r="104" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -23623,8 +24476,16 @@
       <c r="BN104">
         <v>0</v>
       </c>
+      <c r="BO104" s="3"/>
+      <c r="BP104">
+        <v>87</v>
+      </c>
+      <c r="BQ104">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
     </row>
-    <row r="105" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -23823,8 +24684,16 @@
       <c r="BN105">
         <v>0</v>
       </c>
+      <c r="BO105" s="3"/>
+      <c r="BP105">
+        <v>65</v>
+      </c>
+      <c r="BQ105">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="106" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -24023,8 +24892,16 @@
       <c r="BN106">
         <v>0</v>
       </c>
+      <c r="BO106" s="3"/>
+      <c r="BP106">
+        <v>50</v>
+      </c>
+      <c r="BQ106">
+        <f t="shared" si="1"/>
+        <v>-7</v>
+      </c>
     </row>
-    <row r="107" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -24223,8 +25100,16 @@
       <c r="BN107">
         <v>0</v>
       </c>
+      <c r="BO107" s="3"/>
+      <c r="BP107">
+        <v>94</v>
+      </c>
+      <c r="BQ107">
+        <f t="shared" si="1"/>
+        <v>-23</v>
+      </c>
     </row>
-    <row r="108" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -24423,8 +25308,16 @@
       <c r="BN108">
         <v>0</v>
       </c>
+      <c r="BO108" s="3"/>
+      <c r="BP108">
+        <v>53</v>
+      </c>
+      <c r="BQ108">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
     </row>
-    <row r="109" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -24623,8 +25516,16 @@
       <c r="BN109">
         <v>0</v>
       </c>
+      <c r="BO109" s="3"/>
+      <c r="BP109">
+        <v>76</v>
+      </c>
+      <c r="BQ109">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
     </row>
-    <row r="110" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -24823,8 +25724,16 @@
       <c r="BN110">
         <v>0</v>
       </c>
+      <c r="BO110" s="3"/>
+      <c r="BP110">
+        <v>53</v>
+      </c>
+      <c r="BQ110">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="111" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -25023,8 +25932,16 @@
       <c r="BN111">
         <v>0</v>
       </c>
+      <c r="BO111" s="3"/>
+      <c r="BP111">
+        <v>70</v>
+      </c>
+      <c r="BQ111">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="112" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -25223,8 +26140,16 @@
       <c r="BN112">
         <v>1</v>
       </c>
+      <c r="BO112" s="3"/>
+      <c r="BP112">
+        <v>73</v>
+      </c>
+      <c r="BQ112">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="113" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -25423,8 +26348,16 @@
       <c r="BN113">
         <v>0</v>
       </c>
+      <c r="BO113" s="3"/>
+      <c r="BP113">
+        <v>81</v>
+      </c>
+      <c r="BQ113">
+        <f t="shared" si="1"/>
+        <v>-23</v>
+      </c>
     </row>
-    <row r="114" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -25623,8 +26556,16 @@
       <c r="BN114">
         <v>0</v>
       </c>
+      <c r="BO114" s="3"/>
+      <c r="BP114">
+        <v>87</v>
+      </c>
+      <c r="BQ114">
+        <f t="shared" si="1"/>
+        <v>-25</v>
+      </c>
     </row>
-    <row r="115" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -25823,8 +26764,16 @@
       <c r="BN115">
         <v>0</v>
       </c>
+      <c r="BO115" s="3"/>
+      <c r="BP115">
+        <v>64</v>
+      </c>
+      <c r="BQ115">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
     </row>
-    <row r="116" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -26023,8 +26972,16 @@
       <c r="BN116">
         <v>0</v>
       </c>
+      <c r="BO116" s="3"/>
+      <c r="BP116">
+        <v>83</v>
+      </c>
+      <c r="BQ116">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
     </row>
-    <row r="117" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -26223,8 +27180,16 @@
       <c r="BN117">
         <v>0</v>
       </c>
+      <c r="BO117" s="3"/>
+      <c r="BP117">
+        <v>62</v>
+      </c>
+      <c r="BQ117">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="118" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -26423,8 +27388,16 @@
       <c r="BN118">
         <v>0</v>
       </c>
+      <c r="BO118" s="3"/>
+      <c r="BP118">
+        <v>69</v>
+      </c>
+      <c r="BQ118">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
     </row>
-    <row r="119" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -26623,8 +27596,16 @@
       <c r="BN119">
         <v>0</v>
       </c>
+      <c r="BO119" s="3"/>
+      <c r="BP119">
+        <v>95</v>
+      </c>
+      <c r="BQ119">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
     </row>
-    <row r="120" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
@@ -26823,8 +27804,16 @@
       <c r="BN120">
         <v>0</v>
       </c>
+      <c r="BO120" s="3"/>
+      <c r="BP120">
+        <v>90</v>
+      </c>
+      <c r="BQ120">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
     </row>
-    <row r="121" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
@@ -27023,8 +28012,16 @@
       <c r="BN121">
         <v>0</v>
       </c>
+      <c r="BO121" s="3"/>
+      <c r="BP121">
+        <v>58</v>
+      </c>
+      <c r="BQ121">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="122" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
@@ -27223,8 +28220,16 @@
       <c r="BN122">
         <v>0</v>
       </c>
+      <c r="BO122" s="3"/>
+      <c r="BP122">
+        <v>68</v>
+      </c>
+      <c r="BQ122">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="123" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
@@ -27423,8 +28428,16 @@
       <c r="BN123">
         <v>0</v>
       </c>
+      <c r="BO123" s="3"/>
+      <c r="BP123">
+        <v>99</v>
+      </c>
+      <c r="BQ123">
+        <f t="shared" si="1"/>
+        <v>-27</v>
+      </c>
     </row>
-    <row r="124" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
@@ -27623,8 +28636,16 @@
       <c r="BN124">
         <v>0</v>
       </c>
+      <c r="BO124" s="3"/>
+      <c r="BP124">
+        <v>60</v>
+      </c>
+      <c r="BQ124">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="125" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
@@ -27823,8 +28844,16 @@
       <c r="BN125">
         <v>0</v>
       </c>
+      <c r="BO125" s="3"/>
+      <c r="BP125">
+        <v>90</v>
+      </c>
+      <c r="BQ125">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
     </row>
-    <row r="126" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
@@ -28023,8 +29052,16 @@
       <c r="BN126">
         <v>0</v>
       </c>
+      <c r="BO126" s="3"/>
+      <c r="BP126">
+        <v>65</v>
+      </c>
+      <c r="BQ126">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
     </row>
-    <row r="127" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
@@ -28223,8 +29260,16 @@
       <c r="BN127">
         <v>0</v>
       </c>
+      <c r="BO127" s="3"/>
+      <c r="BP127">
+        <v>69</v>
+      </c>
+      <c r="BQ127">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
     </row>
-    <row r="128" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
@@ -28423,8 +29468,16 @@
       <c r="BN128">
         <v>0</v>
       </c>
+      <c r="BO128" s="3"/>
+      <c r="BP128">
+        <v>80</v>
+      </c>
+      <c r="BQ128">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
     </row>
-    <row r="129" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
@@ -28623,8 +29676,16 @@
       <c r="BN129">
         <v>0</v>
       </c>
+      <c r="BO129" s="3"/>
+      <c r="BP129">
+        <v>62</v>
+      </c>
+      <c r="BQ129">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="130" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
@@ -28823,8 +29884,16 @@
       <c r="BN130">
         <v>0</v>
       </c>
+      <c r="BO130" s="3"/>
+      <c r="BP130">
+        <v>58</v>
+      </c>
+      <c r="BQ130">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
     </row>
-    <row r="131" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
@@ -29023,8 +30092,16 @@
       <c r="BN131">
         <v>0</v>
       </c>
+      <c r="BO131" s="3"/>
+      <c r="BP131">
+        <v>85</v>
+      </c>
+      <c r="BQ131">
+        <f t="shared" ref="BQ131:BQ135" si="2">AE131-BP131</f>
+        <v>-4</v>
+      </c>
     </row>
-    <row r="132" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
@@ -29223,8 +30300,16 @@
       <c r="BN132">
         <v>0</v>
       </c>
+      <c r="BO132" s="3"/>
+      <c r="BP132">
+        <v>71</v>
+      </c>
+      <c r="BQ132">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
     </row>
-    <row r="133" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
@@ -29423,8 +30508,16 @@
       <c r="BN133">
         <v>0</v>
       </c>
+      <c r="BO133" s="3"/>
+      <c r="BP133">
+        <v>95</v>
+      </c>
+      <c r="BQ133">
+        <f t="shared" si="2"/>
+        <v>-16</v>
+      </c>
     </row>
-    <row r="134" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
@@ -29623,8 +30716,16 @@
       <c r="BN134">
         <v>0</v>
       </c>
+      <c r="BO134" s="3"/>
+      <c r="BP134">
+        <v>69</v>
+      </c>
+      <c r="BQ134">
+        <f t="shared" si="2"/>
+        <v>-12</v>
+      </c>
     </row>
-    <row r="135" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
@@ -29819,6 +30920,14 @@
       </c>
       <c r="BN135">
         <v>0</v>
+      </c>
+      <c r="BO135" s="3"/>
+      <c r="BP135">
+        <v>79</v>
+      </c>
+      <c r="BQ135">
+        <f t="shared" si="2"/>
+        <v>-17</v>
       </c>
     </row>
   </sheetData>
